--- a/results.xlsx
+++ b/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,37 +424,191 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Hall Ticket No</t>
+          <t>HTNO</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Student Name</t>
+          <t>Edge Analytics</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Department</t>
+          <t>Cyber Security</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Marks Obtained</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>Software Project Management</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Human Computer Interaction</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Renewable Energy Source</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Edge Analytics Lab</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Machine Learning Lab</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Internship / Mini Project</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>SGPA</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>CGPA</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Credits Obtained</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Subject Due</t>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>20J41A6901</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>20J41A6902</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>746</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>8.58</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,62 +429,77 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Edge Analytics</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Cyber Security</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Machine Learning</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Software Project Management</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Human Computer Interaction</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Renewable Energy Source</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Edge Analytics Lab</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Machine Learning Lab</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Internship / Mini Project</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>SGPA</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>CGPA</t>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>marks obtainedCGPA</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>credits</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>subjects due</t>
         </is>
       </c>
     </row>
@@ -496,57 +511,82 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">ADEPU HARIDWATHI </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>87</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>87</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>790</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>9.08</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>790/900</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0/9</t>
         </is>
       </c>
     </row>
@@ -558,57 +598,5650 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">AMBATI AJAY KUMAR </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>80</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>98</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>98</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>746</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>8.58</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>746/900</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20J41A6903</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANANTHU CHARAN TEJA </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>552/900</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>21/24</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20J41A6904</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANUMOLU SAI </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>690</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>690/900</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20J41A6905</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APPALA PRANAY </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>672/900</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20J41A6906</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BOLLAVARAM SHOBHITHA </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>771/900</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20J41A6907</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CH. Y V S SRINIVAS </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>656/900</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20J41A6908</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CH. YS V S GOPAL </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>665/900</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20J41A6909</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHALAMALASETTY LOKESH </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>637/900</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20J41A6910</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHINTAKAYALA SUMANA SRI </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>721/900</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20J41A6911</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHOLLETI SIDDHARTHA REDDY </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>751/900</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20J41A6912</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DEVARAKONDA HARSHITA VARDHINI  </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>766</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>766/900</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20J41A6913</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GADDAM AKHILA </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>748/900</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20J41A6914</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INAMDAR NIKUNJ </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>676/900</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20J41A6915</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JEJALA NAGAVAMSHI </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>763/900</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20J41A6916</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JHANSI CHENGA </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>757/900</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20J41A6917</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JORRIGALA HRUSHEEKESH </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>615/900</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20J41A6918</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">K KARTHIKEYA </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>731/900</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20J41A6919</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KAMATAM ABHI VARAN </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>630/900</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20J41A6920</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KAREGAM SUNNY RAO </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>703/900</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20J41A6921</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KOMPALA USHA NIKITHA </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>759/900</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20J41A6922</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KOULIGI ROHITH </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>741/900</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20J41A6923</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KOYAGURI SINDHU </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>764/900</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20J41A6924</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KYADHARI SAI PRANAV REDDY </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>734/900</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20J41A6925</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M V VISHRUTTH </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>722/900</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20J41A6926</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANGA RAJU </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>749/900</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20J41A6927</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAREDDY NISHITH CHOWDARY </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>713/900</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20J41A6928</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MITTA PALLY V.S.S. KRISHNA SANJAY  </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>758/900</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20J41A6929</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MUCHARLA CHERRISMAA </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>748/900</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20J41A6930</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NAMANI VISHAL </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>681/900</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20J41A6931</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NANNAPANENI SARATH KUMAR </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>664/900</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>6.9</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20J41A6932</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NITHIN GANNARPU </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>681/900</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20J41A6933</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P. RAKESH </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>693/900</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20J41A6934</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P. ROHAN SANJEEV  </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>681/900</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20J41A6935</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PANTA PRANAY KUMAR REDDY </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>718/900</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20J41A6936</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PARITALA SAI ANUSHA </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>708/900</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20J41A6937</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PEDDOLLA VARSHITH REDDY </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>669/900</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20J41A6938</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PERAM BALADITYA </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>741/900</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20J41A6939</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PERATI MANI PREETHAM </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>713/900</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20J41A6940</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POLISETTY SAI KRISHNA </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>673/900</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20J41A6941</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PONNA SAI TEJA </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>643/900</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20J41A6942</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PULLURI RAGHUNATH </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>630/900</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20J41A6943</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PURITIPATI SWETHA </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>769/900</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20J41A6944</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PYVARDHA BALA SESHA SREENIDHY </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>725/900</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20J41A6945</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S. ABHINAYA </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>781/900</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20J41A6946</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SAI RAHUL NALLANDHIGHAL </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>715/900</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20J41A6947</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SHAIK MAHAMOOD HUSSAIN </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>572/900</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>21/24</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>1/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20J41A6948</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOMA MANI TEJA </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>605/900</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20J41A6949</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOURAV BHARDWAJ </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>711/900</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20J41A6950</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUNKARI ANIL GOUD </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>727/900</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20J41A6951</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SURAM PARINITHA </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>737/900</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20J41A6952</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TANNIRU LAVANYA </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>695/900</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20J41A6953</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOGARU BHARGAV </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>633/900</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20J41A6954</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">V. NIVRITI  </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>601/900</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20J41A6955</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VYTLA SRISATYA HARSHITH </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>652/900</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20J41A6956</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">YARABHAM JAHNAVI </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>761/900</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20J41A6957</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BUGATA VIJAY REDDY </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>701/900</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20J41A6958</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goreti Sruthi </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>715/900</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20J41A6959</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Medishetti Krishna Sai </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>588/900</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>21/24</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>1/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20J41A6960</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOMA SWARNA </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>733/900</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>21j45a6901</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ABDUL RAZZAQ </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>586/900</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>21/24</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>1/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>21j45a6902</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BANDARI CHANDU </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>700/900</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>21j45a6903</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GAJJELA VAMSHIKRISHNA </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>683/900</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>21j45a6904</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KASIREDDY SRINIVAS REDDY </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>679/900</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>21j45a6905</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POTHU NAVEEN </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>689/900</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>24/24</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>21j45a6906</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SHAIK MOHAMMED ALI </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>647/900</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>21/24</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>1/9</t>
         </is>
       </c>
     </row>
